--- a/doc/sprint_backlog.xlsx
+++ b/doc/sprint_backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -104,9 +104,6 @@
     <t>wait for start</t>
   </si>
   <si>
-    <t>Protect UI from unauthenticated access</t>
-  </si>
-  <si>
     <t>PHP / Angular / CSS</t>
   </si>
   <si>
@@ -297,6 +294,51 @@
   </si>
   <si>
     <t>implement tags beeing added to thing by drag-&amp;-drop</t>
+  </si>
+  <si>
+    <t>WIP (5%)</t>
+  </si>
+  <si>
+    <t>Things-Filter by Tags</t>
+  </si>
+  <si>
+    <t>Filter Things by selected Tags</t>
+  </si>
+  <si>
+    <t>Tag amount limit</t>
+  </si>
+  <si>
+    <t>limit the displayed tags</t>
+  </si>
+  <si>
+    <t>Protect app from unauthenticated access</t>
+  </si>
+  <si>
+    <t>delete resource</t>
+  </si>
+  <si>
+    <t>Implemente users deletion</t>
+  </si>
+  <si>
+    <t>Implement logout of user</t>
+  </si>
+  <si>
+    <t>Update user</t>
+  </si>
+  <si>
+    <t>Implement user delete</t>
+  </si>
+  <si>
+    <t>User logout</t>
+  </si>
+  <si>
+    <t>Prepare Presentation</t>
+  </si>
+  <si>
+    <t>create Demo-Video</t>
+  </si>
+  <si>
+    <t>prepare the talk</t>
   </si>
 </sst>
 </file>
@@ -366,7 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -378,6 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -686,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -771,22 +814,22 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A47" si="0">A2+1</f>
+        <f t="shared" ref="A3:A52" si="0">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -807,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -819,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -843,7 +886,7 @@
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -879,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -891,13 +934,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>21</v>
@@ -915,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -927,13 +970,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -951,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -963,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -987,7 +1030,7 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -999,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>21</v>
@@ -1023,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1035,13 +1078,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
@@ -1059,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1071,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1095,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,13 +1150,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>21</v>
@@ -1131,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1143,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -1167,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1179,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1203,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1215,13 +1258,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
@@ -1239,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1251,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
@@ -1275,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1317,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>23</v>
@@ -1334,8 +1377,14 @@
       <c r="H18">
         <v>2</v>
       </c>
-      <c r="K18" t="s">
-        <v>25</v>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1347,13 +1396,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>15</v>
@@ -1365,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1377,13 +1426,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>15</v>
@@ -1407,13 +1456,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -1433,101 +1482,97 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A22+1</f>
+        <v>21</v>
+      </c>
+      <c r="B24">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -1539,16 +1584,19 @@
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1560,16 +1608,19 @@
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -1578,19 +1629,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -1599,157 +1653,271 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="B32">
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
         <f t="shared" si="0"/>
         <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/doc/sprint_backlog.xlsx
+++ b/doc/sprint_backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\uTag\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ajust\BFH uTag\Tocommit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18936" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -92,48 +92,21 @@
     <t>rytzr1</t>
   </si>
   <si>
-    <t>started</t>
-  </si>
-  <si>
     <t>Implement Tag's color to have a color hashed from it's name</t>
   </si>
   <si>
     <t>Angular / CSS</t>
   </si>
   <si>
-    <t>wait for start</t>
-  </si>
-  <si>
     <t>PHP / Angular / CSS</t>
   </si>
   <si>
     <t>Build UI for register new User</t>
   </si>
   <si>
-    <t>Update model that only resources of the actual user are displayed</t>
-  </si>
-  <si>
     <t>PHP / SQL</t>
   </si>
   <si>
-    <t>add Note-field to resources</t>
-  </si>
-  <si>
-    <t>Implement to add a tag to an existing resource</t>
-  </si>
-  <si>
-    <t>Implement to remove an existing tag from an existing resource</t>
-  </si>
-  <si>
-    <t>Implement to update the media from an existing resource</t>
-  </si>
-  <si>
-    <t>Implement update the name of an existing resource</t>
-  </si>
-  <si>
-    <t>Implement update the notes from an existing resource</t>
-  </si>
-  <si>
     <t>add UI to create or update aresource</t>
   </si>
   <si>
@@ -149,27 +122,9 @@
     <t>User registration</t>
   </si>
   <si>
-    <t>User-resources</t>
-  </si>
-  <si>
-    <t>Note of resource</t>
-  </si>
-  <si>
     <t>add/update Resource UI</t>
   </si>
   <si>
-    <t>update resource tag</t>
-  </si>
-  <si>
-    <t>update resource media</t>
-  </si>
-  <si>
-    <t>update resource name</t>
-  </si>
-  <si>
-    <t>update resource note</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -179,18 +134,6 @@
     <t>Tag filter</t>
   </si>
   <si>
-    <t>Implement tags filtering resources</t>
-  </si>
-  <si>
-    <t>Webservice consumption</t>
-  </si>
-  <si>
-    <t>implement wikipedia information for tags</t>
-  </si>
-  <si>
-    <t>PHP / Angular / REST</t>
-  </si>
-  <si>
     <t>Project initialization</t>
   </si>
   <si>
@@ -200,9 +143,6 @@
     <t>Project analysis</t>
   </si>
   <si>
-    <t>WIP (50%)</t>
-  </si>
-  <si>
     <t>Framework evaluation</t>
   </si>
   <si>
@@ -296,15 +236,6 @@
     <t>implement tags beeing added to thing by drag-&amp;-drop</t>
   </si>
   <si>
-    <t>WIP (5%)</t>
-  </si>
-  <si>
-    <t>Things-Filter by Tags</t>
-  </si>
-  <si>
-    <t>Filter Things by selected Tags</t>
-  </si>
-  <si>
     <t>Tag amount limit</t>
   </si>
   <si>
@@ -314,12 +245,6 @@
     <t>Protect app from unauthenticated access</t>
   </si>
   <si>
-    <t>delete resource</t>
-  </si>
-  <si>
-    <t>Implemente users deletion</t>
-  </si>
-  <si>
     <t>Implement logout of user</t>
   </si>
   <si>
@@ -339,6 +264,60 @@
   </si>
   <si>
     <t>prepare the talk</t>
+  </si>
+  <si>
+    <t>Update Thing</t>
+  </si>
+  <si>
+    <t>Create Thing</t>
+  </si>
+  <si>
+    <t>Delete Thing</t>
+  </si>
+  <si>
+    <t>Implement to update name/link/desc/tags of a thing</t>
+  </si>
+  <si>
+    <t>Implement deletion of a thing with its name/link/desc/tags</t>
+  </si>
+  <si>
+    <t>Implement to create a thing with its name/link/desc/tags</t>
+  </si>
+  <si>
+    <t>Design for CRUD</t>
+  </si>
+  <si>
+    <t>implement design for Create/Update/Delete-GUIS</t>
+  </si>
+  <si>
+    <t>PHP / SQL / Angular</t>
+  </si>
+  <si>
+    <t>User-Things</t>
+  </si>
+  <si>
+    <t>Update model that only things of the actual user are displayed</t>
+  </si>
+  <si>
+    <t>Note of things</t>
+  </si>
+  <si>
+    <t>add note-field to things</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Implement tags filtering things</t>
+  </si>
+  <si>
+    <t>Prepare VM for Hr. Vogel</t>
+  </si>
+  <si>
+    <t>Prepare virtual machine with server for Hr. Vogel</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -408,12 +387,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -485,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,28 +705,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,13 +736,13 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -785,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -793,12 +769,12 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
@@ -814,27 +790,27 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A52" si="0">A2+1</f>
+        <f t="shared" ref="A3:A36" si="0">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
@@ -850,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -862,15 +838,15 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
@@ -886,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -898,15 +874,15 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
@@ -922,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -934,15 +910,15 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
@@ -958,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -970,15 +946,15 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
@@ -994,10 +970,10 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1006,15 +982,15 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
@@ -1030,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1042,15 +1018,15 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
@@ -1066,10 +1042,10 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1078,15 +1054,15 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G10" t="s">
@@ -1102,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1114,16 +1090,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1138,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1150,15 +1126,15 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
@@ -1174,27 +1150,27 @@
         <v>8</v>
       </c>
       <c r="K12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
@@ -1210,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1222,16 +1198,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1246,10 +1222,10 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1258,15 +1234,15 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
@@ -1282,10 +1258,10 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1294,15 +1270,15 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
@@ -1318,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1332,13 +1308,13 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
@@ -1347,11 +1323,17 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
       <c r="K17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1360,22 +1342,22 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>12</v>
@@ -1383,11 +1365,11 @@
       <c r="J18">
         <v>12</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1396,15 +1378,15 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>95</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
@@ -1413,11 +1395,17 @@
       <c r="H19">
         <v>8</v>
       </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
       <c r="K19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1426,15 +1414,15 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="s">
@@ -1443,11 +1431,17 @@
       <c r="H20">
         <v>4</v>
       </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
       <c r="K20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1456,468 +1450,529 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>A26+1</f>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f>A22+1</f>
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>A21+1</f>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
       <c r="K25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>31</v>
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
       <c r="K26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
       <c r="K27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
       <c r="K28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
       </c>
       <c r="K29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>27</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>86</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
       <c r="K30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="F36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
         <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>49</v>
       </c>
     </row>
   </sheetData>
